--- a/AZ-AD-NOTES.xlsx
+++ b/AZ-AD-NOTES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\0-SDE-Preperation\AZ204\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13961828-621D-43AE-A3F8-C8D63285D116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510F4D9C-D05A-4A60-8C9D-920562FDA777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="827" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AD" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="app-registration" sheetId="3" r:id="rId3"/>
     <sheet name="applicationObject-ServicePrinci" sheetId="4" r:id="rId4"/>
     <sheet name="ManagedIdentity" sheetId="5" r:id="rId5"/>
+    <sheet name="Az-ApplicationObject" sheetId="6" r:id="rId6"/>
+    <sheet name="Az-AD" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,6 +28,122 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>RBAC for application object</t>
+  </si>
+  <si>
+    <t>manage identity</t>
+  </si>
+  <si>
+    <t>AZURE Managed identity(system assigned)(it will atomatically created and will be deleted on resource delete)</t>
+  </si>
+  <si>
+    <t>user assigned managed identity (it will be not atomatically deleted)(it can be used for multiple resources,no need to create user assigned identity for each resource)</t>
+  </si>
+  <si>
+    <t>Application Object vs Service Principle</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>In Azure Active Directory (Azure AD), the concepts of service principals and application objects are fundamental for managing applications and their access. Here’s a detailed comparison:
+### Application Object
+1. **Definition**: 
+   - An application object is a global representation of an application in the Azure AD directory.
+2. **Purpose**: 
+   - It serves as a template or blueprint for creating service principals. The application object defines the identity, permissions, and configuration of the application.
+3. **Uniqueness**:
+   - There is only one application object per application in a directory.
+4. **Key Components**:
+   - **Application ID**: A unique identifier for the application object.
+   - **Metadata**: Includes information such as the application's name, logo, and URLs.
+   - **Permissions**: Specifies the API permissions that the application needs.
+   - **Configuration**: Contains the application’s configuration settings, such as reply URLs, logout URLs, etc.
+5. **Location**:
+   - Resides in the tenant where the application was registered.
+### Service Principal
+1. **Definition**:
+   - A service principal is a security identity used by applications or services to access specific Azure resources.
+2. **Purpose**:
+   - It defines the access policy and permissions for the application across various Azure AD tenants.
+3. **Uniqueness**:
+   - A service principal is unique to a specific tenant. Multiple service principals can be created from a single application object, each in different tenants.
+4. **Key Components**:
+   - **Service Principal ID**: A unique identifier for the service principal.
+   - **Application ID**: The ID of the corresponding application object.
+   - **Permissions/Roles**: Specifies the permissions and roles assigned to the service principal within the tenant.
+   - **Credentials**: Contains keys or certificates used for authentication.
+5. **Location**:
+   - Resides in the tenant where it is created. Each tenant can have its own service principal for the same application.
+### Relationship Between the Two
+- The application object acts as the blueprint, and the service principal is an instance of this blueprint in a specific tenant.
+- When an application is registered in Azure AD, an application object is created. To use this application within a tenant (either the same or another), a service principal must be created based on the application object.
+- The application object defines the global aspects of the application, while the service principal defines the local (tenant-specific) configuration and permissions.
+### Use Cases
+- **Application Object**: Useful for scenarios where you need to define and manage a single, global definition of an application, such as a multi-tenant web app.
+- **Service Principal**: Useful for scenarios where you need to manage access and permissions of an application within a specific tenant, such as automating resource access, managing permissions in different environments, or using managed identities.
+### Summary
+- **Application Object**: Blueprint/Template, one per application, global in Azure AD, contains metadata and configuration.
+- **Service Principal**: Instance of the application in a tenant, contains specific permissions and access policies, multiple per application across tenants.
+Understanding these concepts helps in effectively managing application security and access control in Azure AD.</t>
+  </si>
+  <si>
+    <t>user principle</t>
+  </si>
+  <si>
+    <t>RBAC AT VM(RESOURCE)</t>
+  </si>
+  <si>
+    <t>RBAC FOR Resouce Group</t>
+  </si>
+  <si>
+    <t>AD Role (withing azure active directory)</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/entra/identity/role-based-access-control/permissions-reference#application-developer</t>
+  </si>
+  <si>
+    <t>Azure priviledge access on azure AD or RBAC</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/entra/id-governance/privileged-identity-management/pim-configure</t>
+  </si>
+  <si>
+    <t>SETTING ELIGBLIE</t>
+  </si>
+  <si>
+    <t>Priviledge Identity management</t>
+  </si>
+  <si>
+    <t>requesting eligble role</t>
+  </si>
+  <si>
+    <t>Eligble for RBAC</t>
+  </si>
+  <si>
+    <t>EXTERNAL IDENTITY</t>
+  </si>
+  <si>
+    <t>AD Access review (Identity Governance)</t>
+  </si>
+  <si>
+    <t>https://learn.microsoft.com/en-us/entra/id-governance/access-reviews-overview</t>
+  </si>
+  <si>
+    <t>Performing Access Review</t>
+  </si>
+  <si>
+    <t>Access Review for Role</t>
+  </si>
+  <si>
+    <t>Identity Protection</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -39,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -59,8 +183,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -639,6 +767,1864 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C243B292-36FF-49B3-A3D5-62B7358583B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="0"/>
+          <a:ext cx="6238875" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BD5A736-7923-424B-8A9D-088606C71C3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="7486650" cy="3886200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F8CD86-73FF-473D-8EC7-773E97D5487C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="8001000"/>
+          <a:ext cx="6972300" cy="4038600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07B513C4-8028-4C0E-A94A-2C9117FCC05D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="12192000"/>
+          <a:ext cx="8562975" cy="4429125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8D7E22-1593-43B8-A015-A08B5D399A98}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16954500"/>
+          <a:ext cx="7915275" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4523B6DF-F1AC-4DEE-8522-7C722E8F4310}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6724650" y="17002125"/>
+          <a:ext cx="7981950" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64CCC870-E214-4A64-BB3B-1D79A982E093}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="20974050"/>
+          <a:ext cx="7058025" cy="2876550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B729ACB-447D-4101-87B2-D43FF12CD6B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="295275" y="24507825"/>
+          <a:ext cx="6400800" cy="2466975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E86F73B-B205-4C7C-A50D-4334BBFD4B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8343900" y="31089600"/>
+          <a:ext cx="5819775" cy="2428875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33706F7C-3359-412C-8F6E-6B935E668BD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27622500"/>
+          <a:ext cx="8343900" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B21F2C-4714-4F63-8A24-01454C9CBDA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66675" y="31184850"/>
+          <a:ext cx="8105775" cy="4152900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D0238D-7547-4B9B-BAF4-00A2A8FE7D6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="36004500"/>
+          <a:ext cx="8077200" cy="3209925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6854FB65-0C74-47DA-8374-5374AD593C27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="28575"/>
+          <a:ext cx="5191125" cy="3028950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38923</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>95763</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6D076CF-ED17-4369-8A82-BE166B36B685}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="3276600"/>
+          <a:ext cx="5896798" cy="3677163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1769802F-A36E-4B70-9760-C267EF7E8ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="190500" y="7486650"/>
+          <a:ext cx="6572250" cy="3133725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22541D4-571A-49DF-9941-89A0B18529AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6924675" y="7620000"/>
+          <a:ext cx="4991100" cy="2686050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D162DD17-DF15-4A1C-A29E-627B397C76AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="14782800"/>
+          <a:ext cx="6724650" cy="3200400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E6C6407-AF9A-40B8-B8AF-33848446BFB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="11268075"/>
+          <a:ext cx="6762750" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD466E1B-B630-427D-B8B4-C1473A388DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11229975"/>
+          <a:ext cx="6781800" cy="3257550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AB64AFC-2A4F-4562-8EAB-0BF0F53C3EFA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6381750" y="18688050"/>
+          <a:ext cx="6800850" cy="3400425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFF4266F-9691-495B-A57D-C0F18F057D39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18707100"/>
+          <a:ext cx="6029325" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F82F4DFD-C5E4-493F-AF5F-37EA696F9982}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="22821900"/>
+          <a:ext cx="6800850" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CF80FD8-0ADE-4BF2-A742-E59E47742E58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7038975" y="22783800"/>
+          <a:ext cx="5181600" cy="3486150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7946B071-BBEC-4914-82BB-ADCBBEBF7106}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27527250"/>
+          <a:ext cx="6800850" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ED35D86-196E-442B-8A6F-71BC4A550854}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="27565350"/>
+          <a:ext cx="4352925" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A3B2496-CAAB-47F7-BD68-9A61FB6D26BB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="31442025"/>
+          <a:ext cx="6791325" cy="3143250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA28F7CB-8FE9-4662-BDD6-D0623AF6F412}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6943725" y="31365825"/>
+          <a:ext cx="6858000" cy="3219450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19060C33-6DA3-4870-8807-6DD1D1B9CC2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="35242500"/>
+          <a:ext cx="6791325" cy="3152775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA2741D-1E5E-48BC-81BF-F4D4C2A9E4E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="47625" y="38757225"/>
+          <a:ext cx="5314950" cy="3467100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C43021D-993E-44A9-8320-06D0FC1BF203}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7048500" y="42910125"/>
+          <a:ext cx="6772275" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>225</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{707C944A-3451-4DD6-B0DE-D6E67D656A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="42862500"/>
+          <a:ext cx="6781800" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>244</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>259</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AA55BAD-2060-4E89-9FB6-ACE8336FA923}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="46482000"/>
+          <a:ext cx="6724650" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>258</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57775C3E-4A44-4193-A99C-B8E4AE511267}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6848475" y="46462950"/>
+          <a:ext cx="6734175" cy="2781300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>263</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDC7F42-6C49-4018-8C6D-D12A5DA2AC33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="50177700"/>
+          <a:ext cx="4962525" cy="3019425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D69922EF-EEA7-4ED0-BD25-C2C2CD553EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142875" y="53682900"/>
+          <a:ext cx="6781800" cy="3381375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>300</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50AE42A5-2AD9-4865-9799-8B91A35D29D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="57264300"/>
+          <a:ext cx="4914900" cy="2524125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02D9FB86-949E-49DE-BC31-9208210C56E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4048125" y="59902725"/>
+          <a:ext cx="5648325" cy="3562350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>314</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3068F732-74EC-4ADD-AF72-9C49FFFCCC0B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161925" y="59855100"/>
+          <a:ext cx="3609975" cy="3448050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EADDE42E-27A2-49EA-AE43-3782062FF6F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="63922275"/>
+          <a:ext cx="4371975" cy="3429000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1614CC67-7087-4D61-B93E-166A170FBB52}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4629150" y="63903225"/>
+          <a:ext cx="6810375" cy="3371850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>239123</xdr:colOff>
+      <xdr:row>378</xdr:row>
+      <xdr:rowOff>38661</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA793CC-23B5-488B-80FE-7D40846FFF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3448050" y="68027550"/>
+          <a:ext cx="7154273" cy="4020111"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>67079</xdr:colOff>
+      <xdr:row>373</xdr:row>
+      <xdr:rowOff>38524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{659CA540-5087-49A7-AB52-2AE2A03EEB86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="68056125"/>
+          <a:ext cx="2896004" cy="3038899"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -910,7 +2896,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A145" sqref="A34:XFD145"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +2911,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +2955,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0CD632-6A9B-49BC-BF86-251BF4CD6300}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
@@ -978,4 +2964,743 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F078892E-99BE-4588-8964-595EDA6983B7}">
+  <dimension ref="A20:T237"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F210" sqref="F210"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="20" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="E144" s="1"/>
+      <c r="F144" s="1"/>
+      <c r="G144" s="1"/>
+      <c r="H144" s="1"/>
+      <c r="I144" s="1"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B188" s="1"/>
+      <c r="C188" s="1"/>
+      <c r="D188" s="1"/>
+    </row>
+    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="F210" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:20" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B211" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="2"/>
+      <c r="I211" s="2"/>
+      <c r="J211" s="2"/>
+      <c r="K211" s="2"/>
+      <c r="L211" s="2"/>
+      <c r="M211" s="2"/>
+      <c r="N211" s="2"/>
+      <c r="O211" s="2"/>
+      <c r="P211" s="2"/>
+      <c r="Q211" s="2"/>
+      <c r="R211" s="2"/>
+      <c r="S211" s="2"/>
+      <c r="T211" s="2"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2"/>
+      <c r="K212" s="2"/>
+      <c r="L212" s="2"/>
+      <c r="M212" s="2"/>
+      <c r="N212" s="2"/>
+      <c r="O212" s="2"/>
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+    </row>
+    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="2"/>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="2"/>
+      <c r="M213" s="2"/>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
+      <c r="P213" s="2"/>
+      <c r="Q213" s="2"/>
+      <c r="R213" s="2"/>
+      <c r="S213" s="2"/>
+      <c r="T213" s="2"/>
+    </row>
+    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
+      <c r="I214" s="2"/>
+      <c r="J214" s="2"/>
+      <c r="K214" s="2"/>
+      <c r="L214" s="2"/>
+      <c r="M214" s="2"/>
+      <c r="N214" s="2"/>
+      <c r="O214" s="2"/>
+      <c r="P214" s="2"/>
+      <c r="Q214" s="2"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
+      <c r="T214" s="2"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="2"/>
+      <c r="I216" s="2"/>
+      <c r="J216" s="2"/>
+      <c r="K216" s="2"/>
+      <c r="L216" s="2"/>
+      <c r="M216" s="2"/>
+      <c r="N216" s="2"/>
+      <c r="O216" s="2"/>
+      <c r="P216" s="2"/>
+      <c r="Q216" s="2"/>
+      <c r="R216" s="2"/>
+      <c r="S216" s="2"/>
+      <c r="T216" s="2"/>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="2"/>
+      <c r="I217" s="2"/>
+      <c r="J217" s="2"/>
+      <c r="K217" s="2"/>
+      <c r="L217" s="2"/>
+      <c r="M217" s="2"/>
+      <c r="N217" s="2"/>
+      <c r="O217" s="2"/>
+      <c r="P217" s="2"/>
+      <c r="Q217" s="2"/>
+      <c r="R217" s="2"/>
+      <c r="S217" s="2"/>
+      <c r="T217" s="2"/>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2"/>
+      <c r="K218" s="2"/>
+      <c r="L218" s="2"/>
+      <c r="M218" s="2"/>
+      <c r="N218" s="2"/>
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="2"/>
+      <c r="I219" s="2"/>
+      <c r="J219" s="2"/>
+      <c r="K219" s="2"/>
+      <c r="L219" s="2"/>
+      <c r="M219" s="2"/>
+      <c r="N219" s="2"/>
+      <c r="O219" s="2"/>
+      <c r="P219" s="2"/>
+      <c r="Q219" s="2"/>
+      <c r="R219" s="2"/>
+      <c r="S219" s="2"/>
+      <c r="T219" s="2"/>
+    </row>
+    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="2"/>
+      <c r="I220" s="2"/>
+      <c r="J220" s="2"/>
+      <c r="K220" s="2"/>
+      <c r="L220" s="2"/>
+      <c r="M220" s="2"/>
+      <c r="N220" s="2"/>
+      <c r="O220" s="2"/>
+      <c r="P220" s="2"/>
+      <c r="Q220" s="2"/>
+      <c r="R220" s="2"/>
+      <c r="S220" s="2"/>
+      <c r="T220" s="2"/>
+    </row>
+    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="2"/>
+      <c r="I221" s="2"/>
+      <c r="J221" s="2"/>
+      <c r="K221" s="2"/>
+      <c r="L221" s="2"/>
+      <c r="M221" s="2"/>
+      <c r="N221" s="2"/>
+      <c r="O221" s="2"/>
+      <c r="P221" s="2"/>
+      <c r="Q221" s="2"/>
+      <c r="R221" s="2"/>
+      <c r="S221" s="2"/>
+      <c r="T221" s="2"/>
+    </row>
+    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2"/>
+      <c r="K222" s="2"/>
+      <c r="L222" s="2"/>
+      <c r="M222" s="2"/>
+      <c r="N222" s="2"/>
+      <c r="O222" s="2"/>
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+    </row>
+    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="2"/>
+      <c r="I223" s="2"/>
+      <c r="J223" s="2"/>
+      <c r="K223" s="2"/>
+      <c r="L223" s="2"/>
+      <c r="M223" s="2"/>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
+      <c r="P223" s="2"/>
+      <c r="Q223" s="2"/>
+      <c r="R223" s="2"/>
+      <c r="S223" s="2"/>
+      <c r="T223" s="2"/>
+    </row>
+    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="2"/>
+      <c r="I224" s="2"/>
+      <c r="J224" s="2"/>
+      <c r="K224" s="2"/>
+      <c r="L224" s="2"/>
+      <c r="M224" s="2"/>
+      <c r="N224" s="2"/>
+      <c r="O224" s="2"/>
+      <c r="P224" s="2"/>
+      <c r="Q224" s="2"/>
+      <c r="R224" s="2"/>
+      <c r="S224" s="2"/>
+      <c r="T224" s="2"/>
+    </row>
+    <row r="225" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2"/>
+      <c r="K225" s="2"/>
+      <c r="L225" s="2"/>
+      <c r="M225" s="2"/>
+      <c r="N225" s="2"/>
+      <c r="O225" s="2"/>
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+    </row>
+    <row r="226" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2"/>
+      <c r="K226" s="2"/>
+      <c r="L226" s="2"/>
+      <c r="M226" s="2"/>
+      <c r="N226" s="2"/>
+      <c r="O226" s="2"/>
+      <c r="P226" s="2"/>
+      <c r="Q226" s="2"/>
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+    </row>
+    <row r="227" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2"/>
+      <c r="K227" s="2"/>
+      <c r="L227" s="2"/>
+      <c r="M227" s="2"/>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+    </row>
+    <row r="228" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="2"/>
+      <c r="M228" s="2"/>
+      <c r="N228" s="2"/>
+      <c r="O228" s="2"/>
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+    </row>
+    <row r="229" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+      <c r="M229" s="2"/>
+      <c r="N229" s="2"/>
+      <c r="O229" s="2"/>
+      <c r="P229" s="2"/>
+      <c r="Q229" s="2"/>
+      <c r="R229" s="2"/>
+      <c r="S229" s="2"/>
+      <c r="T229" s="2"/>
+    </row>
+    <row r="230" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+      <c r="M230" s="2"/>
+      <c r="N230" s="2"/>
+      <c r="O230" s="2"/>
+      <c r="P230" s="2"/>
+      <c r="Q230" s="2"/>
+      <c r="R230" s="2"/>
+      <c r="S230" s="2"/>
+      <c r="T230" s="2"/>
+    </row>
+    <row r="231" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+      <c r="K231" s="2"/>
+      <c r="L231" s="2"/>
+      <c r="M231" s="2"/>
+      <c r="N231" s="2"/>
+      <c r="O231" s="2"/>
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+    </row>
+    <row r="232" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+      <c r="M232" s="2"/>
+      <c r="N232" s="2"/>
+      <c r="O232" s="2"/>
+      <c r="P232" s="2"/>
+      <c r="Q232" s="2"/>
+      <c r="R232" s="2"/>
+      <c r="S232" s="2"/>
+      <c r="T232" s="2"/>
+    </row>
+    <row r="233" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+      <c r="M233" s="2"/>
+      <c r="N233" s="2"/>
+      <c r="O233" s="2"/>
+      <c r="P233" s="2"/>
+      <c r="Q233" s="2"/>
+      <c r="R233" s="2"/>
+      <c r="S233" s="2"/>
+      <c r="T233" s="2"/>
+    </row>
+    <row r="234" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+      <c r="M234" s="2"/>
+      <c r="N234" s="2"/>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+    </row>
+    <row r="235" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+      <c r="L235" s="2"/>
+      <c r="M235" s="2"/>
+      <c r="N235" s="2"/>
+      <c r="O235" s="2"/>
+      <c r="P235" s="2"/>
+      <c r="Q235" s="2"/>
+      <c r="R235" s="2"/>
+      <c r="S235" s="2"/>
+      <c r="T235" s="2"/>
+    </row>
+    <row r="236" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+      <c r="M236" s="2"/>
+      <c r="N236" s="2"/>
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+    </row>
+    <row r="237" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2"/>
+      <c r="K237" s="2"/>
+      <c r="L237" s="2"/>
+      <c r="M237" s="2"/>
+      <c r="N237" s="2"/>
+      <c r="O237" s="2"/>
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B211:T237"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C883F0CB-3D7C-4FDC-A7B8-B4A4A80DDBCD}">
+  <dimension ref="A39:G356"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I385" sqref="I385"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="39" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144" s="1"/>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="E164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164" s="1"/>
+      <c r="G164" s="1"/>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" s="1"/>
+    </row>
+    <row r="224" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B281" s="1"/>
+      <c r="C281" s="1"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B335" s="1"/>
+      <c r="C335" s="1"/>
+    </row>
+    <row r="356" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>